--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730478820589" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1649873050821182" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730508271508" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730508861487" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730509491487" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291161330702" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911642753966" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911642773993" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911643564024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911644304056" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873047841054.csv</t>
+          <t>go_stims-1650291161274727.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873047865057.csv</t>
+          <t>GNG_stims-16502911612992766.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730478670528.csv</t>
+          <t>go_stims-16502911613002748.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873047881058.csv</t>
+          <t>GNG_stims-16502911613295648.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-1649873048489189.csv</t>
+          <t>ZB-match_4-16502911617343986.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730490481496.csv</t>
+          <t>OB-1650291163303401.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730485811853.csv</t>
+          <t>OB-16502911626953976.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1649873050808149.csv</t>
+          <t>ZB-match_7-16502911618404014.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730489251492.csv</t>
+          <t>TB-16502911641174035.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873049926188.csv</t>
+          <t>TB-16502911642543972.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730481931794.csv</t>
+          <t>OB-16502911622433984.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730480510595.csv</t>
+          <t>TB-16502911640424023.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730506101856.csv</t>
+          <t>ZB-match_8-16502911618794007.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730508531828.csv</t>
+          <t>MM_stims-16502911643063996.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730508281493.csv</t>
+          <t>ZM_stims-16502911642803988.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873050869152.csv</t>
+          <t>MM_stims-16502911643384054.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730508541493.csv</t>
+          <t>ZM_stims-16502911643074043.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730508851852.csv</t>
+          <t>MM_stims-16502911643534024.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730508701503.csv</t>
+          <t>ZM_stims-16502911643394017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730509171498.csv</t>
+          <t>vSAT_stims-16502911644023972.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873050933185.csv</t>
+          <t>SAT_stims-1650291164365401.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873050888151.csv</t>
+          <t>vSAT_stims-16502911644173994.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730509011838.csv</t>
+          <t>SAT_stims-16502911643853993.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291161330702" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911642753966" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911642773993" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911643564024" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911644304056" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477808601557" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778109205878" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778109215536" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477810969557" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778110305886" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291161274727.csv</t>
+          <t>go_stims-16504778085725572.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911612992766.csv</t>
+          <t>GNG_stims-16504778085845876.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911613002748.csv</t>
+          <t>go_stims-1650477808585553.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911613295648.csv</t>
+          <t>GNG_stims-1650477808600587.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502911617343986.csv</t>
+          <t>OB-1650477809599587.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650291163303401.csv</t>
+          <t>ZB-match_7-16504778093165898.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911626953976.csv</t>
+          <t>ZB-match_3-16504778086145883.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911618404014.csv</t>
+          <t>OB-1650477809691594.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502911641174035.csv</t>
+          <t>TB-16504778105525873.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911642543972.csv</t>
+          <t>TB-1650477810238591.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911622433984.csv</t>
+          <t>OB-16504778101585913.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502911640424023.csv</t>
+          <t>ZB-match_8-16504778089675555.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502911618794007.csv</t>
+          <t>TB-16504778109005868.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911643063996.csv</t>
+          <t>MM_stims-16504778109365807.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911642803988.csv</t>
+          <t>ZM_stims-16504778109235554.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911643384054.csv</t>
+          <t>MM_stims-1650477810952555.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911643074043.csv</t>
+          <t>ZM_stims-16504778109375553.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911643534024.csv</t>
+          <t>MM_stims-16504778109685552.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911643394017.csv</t>
+          <t>ZM_stims-1650477810952555.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911644023972.csv</t>
+          <t>SAT_stims-16504778109715543.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291164365401.csv</t>
+          <t>vSAT_stims-16504778110155919.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911644173994.csv</t>
+          <t>vSAT_stims-16504778110005894.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911643853993.csv</t>
+          <t>SAT_stims-16504778109845574.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477808601557" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778109205878" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778109215536" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477810969557" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778110305886" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960993353374" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961008953276" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961008953276" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961009432955" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961010152953" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778085725572.csv</t>
+          <t>go_stims-1650996099295331.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778085845876.csv</t>
+          <t>GNG_stims-1650996099319296.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477808585553.csv</t>
+          <t>go_stims-1650996099319296.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477808600587.csv</t>
+          <t>GNG_stims-16509960993353374.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477809599587.csv</t>
+          <t>TB-16509961008713443.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778093165898.csv</t>
+          <t>ZB-match_0-16509960998232946.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778086145883.csv</t>
+          <t>TB-16509961008153298.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477809691594.csv</t>
+          <t>OB-16509960998632956.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778105525873.csv</t>
+          <t>TB-16509961004393268.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650477810238591.csv</t>
+          <t>OB-16509961002233303.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778101585913.csv</t>
+          <t>OB-16509961002713284.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504778089675555.csv</t>
+          <t>ZB-match_3-16509960995593016.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778109005868.csv</t>
+          <t>ZB-match_6-1650996099359331.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778109365807.csv</t>
+          <t>MM_stims-16509961009113326.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778109235554.csv</t>
+          <t>ZM_stims-16509961008953276.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477810952555.csv</t>
+          <t>MM_stims-1650996100927329.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778109375553.csv</t>
+          <t>ZM_stims-16509961009113326.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778109685552.csv</t>
+          <t>MM_stims-16509961009432955.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477810952555.csv</t>
+          <t>ZM_stims-1650996100927329.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778109715543.csv</t>
+          <t>vSAT_stims-1650996100999307.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778110155919.csv</t>
+          <t>vSAT_stims-16509961009833267.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778110005894.csv</t>
+          <t>SAT_stims-16509961009432955.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778109845574.csv</t>
+          <t>SAT_stims-16509961009673352.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960993353374" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961008953276" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961008953276" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961009432955" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961010152953" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686920700538" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165116869326342" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686932643878" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686933123834" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686933743837" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996099295331.csv</t>
+          <t>go_stims-1651168692036018.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996099319296.csv</t>
+          <t>GNG_stims-1651168692053049.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996099319296.csv</t>
+          <t>go_stims-16511686920540142.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960993353374.csv</t>
+          <t>GNG_stims-16511686920690196.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961008713443.csv</t>
+          <t>ZB-match_6-1651168692285567.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960998232946.csv</t>
+          <t>TB-16511686932423866.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961008153298.csv</t>
+          <t>OB-16511686928093953.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509960998632956.csv</t>
+          <t>TB-16511686930603838.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961004393268.csv</t>
+          <t>OB-1651168692650393.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961002233303.csv</t>
+          <t>ZB-match_3-1651168692323383.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961002713284.csv</t>
+          <t>TB-16511686928783832.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960995593016.csv</t>
+          <t>ZB-match_5-16511686923623843.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650996099359331.csv</t>
+          <t>OB-1651168692700386.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961009113326.csv</t>
+          <t>MM_stims-16511686932793841.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961008953276.csv</t>
+          <t>ZM_stims-16511686932673867.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996100927329.csv</t>
+          <t>MM_stims-1651168693295393.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961009113326.csv</t>
+          <t>ZM_stims-1651168693280385.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961009432955.csv</t>
+          <t>MM_stims-16511686933113883.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996100927329.csv</t>
+          <t>ZM_stims-16511686932963898.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996100999307.csv</t>
+          <t>SAT_stims-16511686933274212.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961009833267.csv</t>
+          <t>SAT_stims-16511686933153832.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961009432955.csv</t>
+          <t>vSAT_stims-16511686933593886.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961009673352.csv</t>
+          <t>vSAT_stims-1651168693343421.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686920700538" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-165116869326342" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686932643878" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686933123834" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686933743837" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255521342097" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555235230985" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555235311027" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555235870974" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555236660988" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168692036018.csv</t>
+          <t>go_stims-16512555213070977.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168692053049.csv</t>
+          <t>GNG_stims-16512555213250985.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686920540142.csv</t>
+          <t>go_stims-16512555213270981.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686920690196.csv</t>
+          <t>GNG_stims-16512555213410962.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651168692285567.csv</t>
+          <t>ZB-match_0-1651255521362096.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686932423866.csv</t>
+          <t>ZB-match_8-16512555217950976.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511686928093953.csv</t>
+          <t>TB-16512555234570985.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511686930603838.csv</t>
+          <t>OB-1651255522778097.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651168692650393.csv</t>
+          <t>TB-16512555233750966.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651168692323383.csv</t>
+          <t>TB-16512555235110996.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511686928783832.csv</t>
+          <t>ZB-match_1-16512555217391.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686923623843.csv</t>
+          <t>OB-16512555223520977.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168692700386.csv</t>
+          <t>OB-1651255522620096.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686932793841.csv</t>
+          <t>MM_stims-16512555235541015.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686932673867.csv</t>
+          <t>ZM_stims-16512555235331001.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168693295393.csv</t>
+          <t>MM_stims-16512555235700994.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168693280385.csv</t>
+          <t>ZM_stims-16512555235550988.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686933113883.csv</t>
+          <t>MM_stims-16512555235860965.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686932963898.csv</t>
+          <t>ZM_stims-16512555235711017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686933274212.csv</t>
+          <t>vSAT_stims-16512555236340966.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686933153832.csv</t>
+          <t>vSAT_stims-16512555236500983.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686933593886.csv</t>
+          <t>SAT_stims-16512555235920978.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168693343421.csv</t>
+          <t>SAT_stims-16512555236180987.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_15/participant_15_task_orders.xlsx
+++ b/participants/participant_15/participant_15_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255521342097" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555235230985" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555235311027" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555235870974" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555236660988" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889504398339" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889505034037" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515889544645734" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-1651588954466575" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889544965906" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555213070977.csv</t>
+          <t>SAT_stims-1651588950392177.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555213250985.csv</t>
+          <t>SAT_stims-1651588950367156.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555213270981.csv</t>
+          <t>vSAT_stims-16515889504082508.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555213410962.csv</t>
+          <t>vSAT_stims-1651588950424242.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889504715822.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889504447474.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889504864054.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588950472588.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889505024047.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889504874077.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651255521362096.csv</t>
+          <t>OB-16515889508287427.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555217950976.csv</t>
+          <t>TB-16515889544404807.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512555234570985.csv</t>
+          <t>ZB-match_2-16515889505481925.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1651255522778097.csv</t>
+          <t>TB-16515889530840511.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512555233750966.csv</t>
+          <t>ZB-match_4-16515889505907612.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555235110996.csv</t>
+          <t>OB-1651588950870112.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555217391.csv</t>
+          <t>TB-16515889535688894.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512555223520977.csv</t>
+          <t>OB-16515889516564379.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651255522620096.csv</t>
+          <t>ZB-match_7-16515889507180872.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555235541015.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555235331001.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555235700994.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555235550988.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555235860965.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555235711017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555236340966.csv</t>
+          <t>go_stims-1651588954468603.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555236500983.csv</t>
+          <t>GNG_stims-1651588954480534.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555235920978.csv</t>
+          <t>go_stims-1651588954481509.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555236180987.csv</t>
+          <t>GNG_stims-16515889544965906.csv</t>
         </is>
       </c>
     </row>
